--- a/notebooks_rotten_tomatoes_spacy/test_cases/approach4.xlsx
+++ b/notebooks_rotten_tomatoes_spacy/test_cases/approach4.xlsx
@@ -484,21 +484,21 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>we started to wonder if ? some unpaid intern had just typed 'chris rock , ' 'anthony hopkins' and 'terrorists' into some univac-like script machine .</t>
+          <t>the stunt work is top-notch ; the dialogue and drama often food-spittingly funny .</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>we {mask} to {mask} if some unpaid intern had just typed 'chris rock , ' 'anthony hopkins ' and 'terrorists ' into some univac-like script machine .</t>
+          <t>the stunt work is top - {mask} ; the dialogue and drama often food - spittingly {mask} .</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>we {neg_verb} to {neg_verb} if some unpaid intern had just typed 'chris rock , ' 'anthony hopkins ' and 'terrorists ' into some univac-like script machine .</t>
+          <t>the stunt work is top - {pos_adj} ; the dialogue and drama often food - spittingly {pos_adj} .</t>
         </is>
       </c>
     </row>
@@ -507,21 +507,21 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>what ensues are much blood-splattering , mass drug-induced bowel evacuations , and none-too-funny commentary on the cultural distinctions between americans and brits .</t>
+          <t>an original and highly cerebral examination of the psychopathic mind</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>what ensues {mask} much blood-splattering , mass drug-induced bowel evacuations , and {mask} commentary on the cultural distinctions between americans and brits .</t>
+          <t>an {mask} and highly cerebral examination of the {mask} mind</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>what ensues {neg_verb} much blood-splattering , mass drug-induced bowel evacuations , and {neg_adj} commentary on the cultural distinctions between americans and brits .</t>
+          <t>an {neg_adj} and highly cerebral examination of the {neg_adj} mind</t>
         </is>
       </c>
     </row>
@@ -530,21 +530,21 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>the stunt work is top-notch ; the dialogue and drama often food-spittingly funny .</t>
+          <t>a rip-off twice removed , modeled after [seagal's] earlier copycat under siege , sometimes referred to as die hard on a boat .</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>the stunt work is {mask} ; the dialogue and drama often food-spittingly {mask} .</t>
+          <t>a rip - off twice {mask} , {mask} after [ seagal 's ] earlier copycat under siege , sometimes referred to as die hard on a boat .</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>the stunt work is {pos_adj} ; the dialogue and drama often food-spittingly {pos_adj} .</t>
+          <t>a rip - off twice {neg_verb} , {neg_verb} after [ seagal 's ] earlier copycat under siege , sometimes referred to as die hard on a boat .</t>
         </is>
       </c>
     </row>
@@ -553,21 +553,21 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>an original and highly cerebral examination of the psychopathic mind</t>
+          <t>the dialogue is cumbersome , the simpering soundtrack and editing more so .</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>an {mask} and highly cerebral examination of the {mask} mind</t>
+          <t>the dialogue is {mask} , the {mask} soundtrack and editing more so .</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>an {neg_adj} and highly cerebral examination of the {neg_adj} mind</t>
+          <t>the dialogue is {neg_adj} , the {neg_verb} soundtrack and editing more so .</t>
         </is>
       </c>
     </row>
@@ -576,21 +576,21 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>death to smoochy tells a moldy-oldie , not-nearly -as-nasty -as-it- thinks-it-is joke .</t>
+          <t>an engrossing story that combines psychological drama , sociological reflection , and high-octane thriller .</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>death to {mask} tells a moldy-oldie , not-nearly {mask} -as-it- thinks-it-is joke .</t>
+          <t>an {mask} story that {mask} psychological drama , sociological reflection , and high - octane thriller .</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>death to {neg_verb} tells a moldy-oldie , not-nearly {neg_adj} -as-it- thinks-it-is joke .</t>
+          <t>an {pos_adj} story that {pos_verb} psychological drama , sociological reflection , and high - octane thriller .</t>
         </is>
       </c>
     </row>
@@ -599,21 +599,21 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>a rip-off twice removed , modeled after [seagal's] earlier copycat under siege , sometimes referred to as die hard on a boat .</t>
+          <t>in imax in short , it's just as wonderful on the big screen .</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>a rip-off twice {mask} , {mask} after [ seagal 's ] earlier copycat under siege , sometimes referred to as die hard on a boat .</t>
+          <t>in imax in {mask} , it 's just as {mask} on the big screen .</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>a rip-off twice {neg_verb} , {neg_verb} after [ seagal 's ] earlier copycat under siege , sometimes referred to as die hard on a boat .</t>
+          <t>in imax in {neg_adj} , it 's just as {pos_adj} on the big screen .</t>
         </is>
       </c>
     </row>
@@ -626,17 +626,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>too bad none of it is funny .</t>
+          <t>the rules of attraction gets us too drunk on the party favors to sober us up with the transparent attempts at moralizing .</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>too {mask} none of it is {mask} .</t>
+          <t>the rules of attraction {mask} us too {mask} on the party favors to sober us up with the transparent attempts at moralizing .</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>too {neg_adj} none of it is {pos_adj} .</t>
+          <t>the rules of attraction {pos_verb} us too {neg_adj} on the party favors to sober us up with the transparent attempts at moralizing .</t>
         </is>
       </c>
     </row>
@@ -645,21 +645,21 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>the dialogue is cumbersome , the simpering soundtrack and editing more so .</t>
+          <t>manages to accomplish what few sequels can -- it equals the original and in some ways even betters it .</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>the dialogue is cumbersome , the {mask} soundtrack and {mask} more so .</t>
+          <t>{mask} to accomplish what few sequels can -- it equals the {mask} and in some ways even betters it .</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>the dialogue is cumbersome , the {neg_verb} soundtrack and {pos_verb} more so .</t>
+          <t>{pos_verb} to accomplish what few sequels can -- it equals the {neg_adj} and in some ways even betters it .</t>
         </is>
       </c>
     </row>
@@ -668,21 +668,21 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>an engrossing story that combines psychological drama , sociological reflection , and high-octane thriller .</t>
+          <t xml:space="preserve"> one look at a girl in tight pants and big tits and you turn stupid ?  um? . . isn't that the basis for the entire plot ?</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>an {mask} story that {mask} psychological drama , sociological reflection , and high-octane thriller .</t>
+          <t xml:space="preserve"> one look at a girl in tight pants and big tits and you turn {mask} ?  um ? . . is n't that the basis for the {mask} plot ?</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>an {pos_verb} story that {pos_verb} psychological drama , sociological reflection , and high-octane thriller .</t>
+          <t xml:space="preserve"> one look at a girl in tight pants and big tits and you turn {neg_adj} ?  um ? . . is n't that the basis for the {neg_adj} plot ?</t>
         </is>
       </c>
     </row>
@@ -691,21 +691,21 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>in imax in short , it's just as wonderful on the big screen .</t>
+          <t>charly comes off as emotionally manipulative and sadly imitative of innumerable past love story derisions .</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>in imax in {mask} , it 's just as {mask} on the big screen .</t>
+          <t>charly comes off as emotionally {mask} and sadly {mask} of innumerable past love story derisions .</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>in imax in {neg_adj} , it 's just as {pos_adj} on the big screen .</t>
+          <t>charly comes off as emotionally {neg_adj} and sadly {pos_adj} of innumerable past love story derisions .</t>
         </is>
       </c>
     </row>
@@ -714,21 +714,21 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>the rules of attraction gets us too drunk on the party favors to sober us up with the transparent attempts at moralizing .</t>
+          <t>tully is worth a look for its true-to-life characters , its sensitive acting , its unadorned view of rural life and the subtle direction of first-timer hilary birmingham .</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>the rules of attraction {mask} us too {mask} on the party favors to sober us up with the transparent attempts at moralizing .</t>
+          <t>tully is {mask} a look for its true - to - life characters , its {mask} acting , its unadorned view of rural life and the subtle direction of first - timer hilary birmingham .</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>the rules of attraction {pos_verb} us too {neg_verb} on the party favors to sober us up with the transparent attempts at moralizing .</t>
+          <t>tully is {pos_adj} a look for its true - to - life characters , its {neg_adj} acting , its unadorned view of rural life and the subtle direction of first - timer hilary birmingham .</t>
         </is>
       </c>
     </row>
@@ -741,17 +741,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>dragonfly' dwells on crossing-over mumbo jumbo , manipulative sentimentality , and sappy dialogue .</t>
+          <t>the high-concept scenario soon proves preposterous , the acting is robotically italicized , and truth-in-advertising hounds take note : there's very little hustling on view .</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>dragonfly ' dwells on crossing-over {mask} jumbo , manipulative sentimentality , and {mask} dialogue .</t>
+          <t>the high - concept scenario soon proves {mask} , the acting is robotically {mask} , and truth - in - advertising hounds take note : there 's very little hustling on view .</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>dragonfly ' dwells on crossing-over {neg_adj} jumbo , manipulative sentimentality , and {neg_adj} dialogue .</t>
+          <t>the high - concept scenario soon proves {neg_adj} , the acting is robotically {neg_verb} , and truth - in - advertising hounds take note : there 's very little hustling on view .</t>
         </is>
       </c>
     </row>
@@ -760,21 +760,21 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>manages to accomplish what few sequels can -- it equals the original and in some ways even betters it .</t>
+          <t>a wannabe comedy of manners about a brainy prep-school kid with a mrs . robinson complex founders on its own preciousness -- and squanders its beautiful women .</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>manages to accomplish what few sequels {mask} -- it equals the {mask} and in some ways even betters it .</t>
+          <t>a {mask} comedy of manners about a brainy prep - school kid with a mrs . robinson complex founders on its own preciousness -- and {mask} its beautiful women .</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>manages to accomplish what few sequels {neg_verb} -- it equals the {neg_adj} and in some ways even betters it .</t>
+          <t>a {neg_adj} comedy of manners about a brainy prep - school kid with a mrs . robinson complex founders on its own preciousness -- and {neg_verb} its beautiful women .</t>
         </is>
       </c>
     </row>
@@ -783,21 +783,21 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>charly comes off as emotionally manipulative and sadly imitative of innumerable past love story derisions .</t>
+          <t>seeing as the film lacks momentum and its position remains mostly undeterminable , the director's experiment is a successful one .</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>charly comes off as emotionally {mask} and sadly {mask} of innumerable past love story derisions .</t>
+          <t>seeing as the film lacks momentum and its position remains mostly {mask} , the director 's experiment is a {mask} one .</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>charly comes off as emotionally {neg_adj} and sadly {pos_adj} of innumerable past love story derisions .</t>
+          <t>seeing as the film lacks momentum and its position remains mostly {neg_adj} , the director 's experiment is a {pos_adj} one .</t>
         </is>
       </c>
     </row>
@@ -806,21 +806,21 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>the high-concept scenario soon proves preposterous , the acting is robotically italicized , and truth-in-advertising hounds take note : there's very little hustling on view .</t>
+          <t>a brilliant , absurd collection of vignettes that , in their own idiosyncratic way , sum up the strange horror of life in the new millennium .</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>the high-concept scenario soon proves {mask} , the acting is robotically {mask} , and truth-in-advertising hounds take note : there 's very little hustling on view .</t>
+          <t>a {mask} , absurd collection of vignettes that , in their own idiosyncratic way , {mask} up the strange horror of life in the new millennium .</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>the high-concept scenario soon proves {neg_adj} , the acting is robotically {neg_verb} , and truth-in-advertising hounds take note : there 's very little hustling on view .</t>
+          <t>a {pos_adj} , absurd collection of vignettes that , in their own idiosyncratic way , {neg_verb} up the strange horror of life in the new millennium .</t>
         </is>
       </c>
     </row>
@@ -829,21 +829,21 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>i was hoping that it would be sleazy and fun , but it was neither .</t>
+          <t>a pointed , often tender , examination of the pros and cons of unconditional love and familial duties .</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>i was {mask} that it would be sleazy and fun , but it {mask} neither .</t>
+          <t>a pointed , often {mask} , examination of the pros and cons of {mask} love and familial duties .</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>i was {neg_verb} that it would be sleazy and fun , but it {neg_verb} neither .</t>
+          <t>a pointed , often {pos_adj} , examination of the pros and cons of {pos_adj} love and familial duties .</t>
         </is>
       </c>
     </row>
@@ -852,21 +852,21 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>seeing as the film lacks momentum and its position remains mostly undeterminable , the director's experiment is a successful one .</t>
+          <t>leaves viewers out in the cold and undermines some phenomenal performances .</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>seeing as the film lacks momentum and its position remains mostly undeterminable , the director 's experiment {mask} a {mask} one .</t>
+          <t>leaves viewers out in the cold and {mask} some {mask} performances .</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>seeing as the film lacks momentum and its position remains mostly undeterminable , the director 's experiment {pos_verb} a {pos_adj} one .</t>
+          <t>leaves viewers out in the cold and {neg_verb} some {pos_adj} performances .</t>
         </is>
       </c>
     </row>
@@ -875,21 +875,21 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>leaves viewers out in the cold and undermines some phenomenal performances .</t>
+          <t>a much more successful translation than its most famous previous film adaptation , writer-director anthony friedman's similarly updated 1970 british production .</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>leaves viewers out in the cold and {mask} some {mask} performances .</t>
+          <t>a much more {mask} translation than its most famous {mask} film adaptation , writer - director anthony friedman 's similarly updated 1970 british production .</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>leaves viewers out in the cold and {neg_verb} some {pos_adj} performances .</t>
+          <t>a much more {pos_adj} translation than its most famous {neg_adj} film adaptation , writer - director anthony friedman 's similarly updated 1970 british production .</t>
         </is>
       </c>
     </row>
@@ -902,17 +902,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>a much more successful translation than its most famous previous film adaptation , writer-director anthony friedman's similarly updated 1970 british production .</t>
+          <t>this chicago has hugely imaginative and successful casting to its great credit , as well as one terrific score and attitude to spare .</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>a much more {mask} translation than its most famous {mask} film adaptation , writer-director anthony friedman 's similarly updated 1970 british production .</t>
+          <t>this chicago has hugely imaginative and successful casting to its great credit , as well as one {mask} score and attitude to {mask} .</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>a much more {pos_adj} translation than its most famous {neg_adj} film adaptation , writer-director anthony friedman 's similarly updated 1970 british production .</t>
+          <t>this chicago has hugely imaginative and successful casting to its great credit , as well as one {pos_adj} score and attitude to {neg_verb} .</t>
         </is>
       </c>
     </row>
